--- a/src/test/resources/visitExcelArchitectureTest.xlsx
+++ b/src/test/resources/visitExcelArchitectureTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Manu/IdeaProjects/MetaDBRestAPIPadim/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE1EA55-D6E9-BD45-90EA-F9D3C9DD91E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FFAA1C-833B-43DB-8809-C98C5C671405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -524,9 +524,6 @@
     <t>Abbildung</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>ort</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>auftraggeber</t>
   </si>
   <si>
-    <t>ausfuhrer</t>
-  </si>
-  <si>
     <t>beteiligter</t>
   </si>
   <si>
@@ -579,6 +573,12 @@
   </si>
   <si>
     <t>Ausführende Gruppe - Bau</t>
+  </si>
+  <si>
+    <t>architecturename</t>
+  </si>
+  <si>
+    <t>Bez2</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1049,7 +1049,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1354,97 +1354,97 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1501,87 +1501,87 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -1619,355 +1619,355 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -2041,142 +2041,142 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2245,302 +2245,302 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" s="69" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="72" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" s="72" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="72" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="75" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" s="76" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="76" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="77" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" s="78" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="79" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="79" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="80" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="81" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="82" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="83" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="84" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" s="84" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="84" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="85" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="86" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="86" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="87" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="88" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" s="88" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="89" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="89" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="90" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" s="90" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="90" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="91" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" s="91" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="91" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" s="92" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="92" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="93" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="94" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="95" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="96" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="97" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="98" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" s="98" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="98" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="99" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" s="99" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="99" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" s="100" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="100" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="101" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" s="101" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="101" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="102" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" s="102" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="103" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="103" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" s="104" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="104" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -2614,47 +2614,47 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2699,282 +2699,282 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="107" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" s="107" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="107" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="108" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" s="108" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="108" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="109" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" s="109" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="109" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" s="110" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="111" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="112" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="113" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" s="113" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="114" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" s="114" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="114" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="115" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="117" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" s="117" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="118" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" s="118" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="118" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" s="119" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="119" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="120" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="121" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" s="121" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="121" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" s="122" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="122" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" s="123" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="123" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" s="124" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="124" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="125" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="125" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="126" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" s="126" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="126" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="127" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" s="127" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="127" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="128" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" s="128" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="128" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="129" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" s="129" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="129" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="130" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" s="130" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="130" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="131" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" s="131" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="131" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="132" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" s="132" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="132" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="133" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" s="133" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="133" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="134" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" s="134" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="134" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="135" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="136" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="137" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>129</v>
       </c>
@@ -3036,77 +3036,77 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="139" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="140" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="141" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>164</v>
       </c>

--- a/src/test/resources/visitExcelArchitectureTest.xlsx
+++ b/src/test/resources/visitExcelArchitectureTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FFAA1C-833B-43DB-8809-C98C5C671405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F963D46F-8D75-4592-A7DB-E1273BA81BD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -567,9 +567,6 @@
   </si>
   <si>
     <t>objekt</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>Ausführende Gruppe - Bau</t>
@@ -585,18 +582,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -888,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -903,9 +895,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -916,9 +907,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -932,38 +923,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -971,17 +962,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -991,13 +982,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1005,30 +996,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1466,23 +1457,23 @@
           </x14:formula1>
           <xm:sqref>B10:SG10</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12:SG12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16:SG16</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+            <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B11:SG11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B12:SG12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B16:SG16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1597,17 +1588,17 @@
           </x14:formula1>
           <xm:sqref>B3:SG3 B11:SG12</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:SG15</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+            <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B4:SG7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B15:SG15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1617,13 +1608,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+    <sheetView zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,351 +1622,343 @@
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>180</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="42" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="45" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B43:SG44" xr:uid="{00000000-0002-0000-0200-00000E000000}">
-      <formula1>$B$1:$XFD$1</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="B42:SG43" xr:uid="{00000000-0002-0000-0200-00000E000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1986,43 +1969,43 @@
           <x14:formula1>
             <xm:f>Place!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:SG3</xm:sqref>
+          <xm:sqref>B2:SG2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Activity!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B13:SG13</xm:sqref>
+          <xm:sqref>B12:SG12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Person!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B45:SG45 B36:SG38 B21:SG23</xm:sqref>
+          <xm:sqref>B44:SG44 B35:SG37 B20:SG22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
           <x14:formula1>
             <xm:f>Group!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B46:SG46 B39:SG41 B24:SG26</xm:sqref>
+          <xm:sqref>B45:SG45 B38:SG40 B23:SG25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000012000000}">
           <x14:formula1>
             <xm:f>Institution!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B47:SG47</xm:sqref>
+          <xm:sqref>B46:SG46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000013000000}">
           <x14:formula1>
             <xm:f>Object!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B48:SG48 B55:SG55</xm:sqref>
+          <xm:sqref>B47:SG47 B54:SG54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000014000000}">
           <x14:formula1>
             <xm:f>Reference!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B52:SG52</xm:sqref>
+          <xm:sqref>B51:SG51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2046,23 +2029,23 @@
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:1" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:1" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2071,23 +2054,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:1" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:1" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:1" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2116,18 +2099,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+    <row r="15" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+    <row r="17" spans="1:1" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2136,43 +2119,43 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:1" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:1" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+    <row r="22" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:1" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
+    <row r="25" spans="1:1" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2210,23 +2193,23 @@
           </x14:formula1>
           <xm:sqref>B20:SG20</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B22:SG22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B24:SG24</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+            <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B21:SG21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B22:SG22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B24:SG24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2250,8 +2233,8 @@
     <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2270,28 +2253,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:1" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+    <row r="7" spans="1:1" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+    <row r="8" spans="1:1" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:1" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2310,103 +2293,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="70" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+    <row r="14" spans="1:1" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="71" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+    <row r="15" spans="1:1" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:1" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+    <row r="17" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+    <row r="18" spans="1:1" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="75" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
+    <row r="19" spans="1:1" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
+    <row r="20" spans="1:1" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="79" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+    <row r="21" spans="1:1" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
+    <row r="22" spans="1:1" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="79" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+    <row r="23" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+    <row r="24" spans="1:1" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="81" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83" t="s">
+    <row r="25" spans="1:1" s="82" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="82" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84" t="s">
+    <row r="26" spans="1:1" s="83" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="83" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
+    <row r="27" spans="1:1" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="84" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
+    <row r="28" spans="1:1" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="85" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
+    <row r="29" spans="1:1" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="86" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+    <row r="30" spans="1:1" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="87" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="89" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
+    <row r="31" spans="1:1" s="88" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="88" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="90" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="90" t="s">
+    <row r="32" spans="1:1" s="89" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="89" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2430,58 +2413,58 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="91" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="91" t="s">
+    <row r="37" spans="1:1" s="90" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="90" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92" t="s">
+    <row r="38" spans="1:1" s="91" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="91" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="93" t="s">
+    <row r="39" spans="1:1" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94" t="s">
+    <row r="40" spans="1:1" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="93" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="95" t="s">
+    <row r="41" spans="1:1" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="94" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="96" t="s">
+    <row r="42" spans="1:1" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="95" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="97" t="s">
+    <row r="43" spans="1:1" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="96" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="98" t="s">
+    <row r="44" spans="1:1" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="97" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="99" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99" t="s">
+    <row r="45" spans="1:1" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="98" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="100" t="s">
+    <row r="46" spans="1:1" s="99" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="99" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="101" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="101" t="s">
+    <row r="47" spans="1:1" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="100" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2525,18 +2508,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="102" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="102" t="s">
+    <row r="56" spans="1:1" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="101" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="103" t="s">
+    <row r="57" spans="1:1" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="102" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="104" t="s">
+    <row r="58" spans="1:1" s="103" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="103" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2579,23 +2562,23 @@
           </x14:formula1>
           <xm:sqref>B33:SG33 B35:SG35</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B49:SG49 B53:SG53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B57:SG57</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+            <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B36:SG36 B51:SG51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B49:SG49 B53:SG53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B57:SG57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2619,8 +2602,8 @@
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:1" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2664,23 +2647,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+          <x14:formula1>
+            <xm:f>Place!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:SG4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:SG7</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+            <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B3:SG3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
-          <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:SG4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:SG7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2704,8 +2687,8 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2734,83 +2717,83 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="107" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="106" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="108" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:1" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="109" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+    <row r="9" spans="1:1" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+    <row r="10" spans="1:1" s="109" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
+    <row r="11" spans="1:1" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
+    <row r="12" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="111" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="113" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113" t="s">
+    <row r="13" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="114" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
+    <row r="14" spans="1:1" s="113" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="113" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
+    <row r="15" spans="1:1" s="114" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116" t="s">
+    <row r="16" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="115" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="117" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117" t="s">
+    <row r="17" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="116" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="118" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="118" t="s">
+    <row r="18" spans="1:1" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="117" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="119" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+    <row r="19" spans="1:1" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="118" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="120" t="s">
+    <row r="20" spans="1:1" s="119" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="119" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="121" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
+    <row r="21" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="120" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122" t="s">
+    <row r="22" spans="1:1" s="121" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="121" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2829,63 +2812,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
+    <row r="26" spans="1:1" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="122" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="124" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="124" t="s">
+    <row r="27" spans="1:1" s="123" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="123" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="125" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="125" t="s">
+    <row r="28" spans="1:1" s="124" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="124" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126" t="s">
+    <row r="29" spans="1:1" s="125" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="125" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="127" t="s">
+    <row r="30" spans="1:1" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="128" t="s">
+    <row r="31" spans="1:1" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="127" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="129" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="129" t="s">
+    <row r="32" spans="1:1" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="128" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="130" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="130" t="s">
+    <row r="33" spans="1:1" s="129" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="131" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="131" t="s">
+    <row r="34" spans="1:1" s="130" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="130" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="132" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="132" t="s">
+    <row r="35" spans="1:1" s="131" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="131" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="133" t="s">
+    <row r="36" spans="1:1" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="132" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="134" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="134" t="s">
+    <row r="37" spans="1:1" s="133" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="133" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2954,18 +2937,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="135" t="s">
+    <row r="51" spans="1:1" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="134" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="136" t="s">
+    <row r="52" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="135" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="137" t="s">
+    <row r="53" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="136" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2995,29 +2978,29 @@
           </x14:formula1>
           <xm:sqref>B13:SG13 B22:SG22</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000007000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B40:SG40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000B000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B55:SG55 B47:SG48</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000D000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B52:SG52</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+            <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B39:SG39 B41:SG43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000007000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B40:SG40</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000B000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B55:SG55 B47:SG48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000D000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B52:SG52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3029,7 +3012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3041,8 +3024,8 @@
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3086,18 +3069,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+    <row r="10" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140" t="s">
+    <row r="11" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="139" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="141" t="s">
+    <row r="12" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="140" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3116,35 +3099,35 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:SG5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
+          <x14:formula1>
+            <xm:f>Person!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:SG7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:SG11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14:SG14</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
           <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+            <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B4:SG4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5:SG5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
-          <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:SG7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11:SG11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14:SG14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/visitExcelArchitectureTest.xlsx
+++ b/src/test/resources/visitExcelArchitectureTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F963D46F-8D75-4592-A7DB-E1273BA81BD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD69583-2AC7-42D2-9891-A582750E4A15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -555,9 +555,6 @@
   </si>
   <si>
     <t>beschreibung</t>
-  </si>
-  <si>
-    <t>bauteil</t>
   </si>
   <si>
     <t>kommentar</t>
@@ -1610,11 +1607,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1754,7 +1751,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1772,7 +1769,7 @@
     </row>
     <row r="24" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -1882,9 +1879,6 @@
       <c r="A42" t="s">
         <v>65</v>
       </c>
-      <c r="B42" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -1911,7 +1905,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,7 +1913,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1927,7 +1921,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -3012,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/src/test/resources/visitExcelArchitectureTest.xlsx
+++ b/src/test/resources/visitExcelArchitectureTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD69583-2AC7-42D2-9891-A582750E4A15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281CDFF-D826-4BBD-BB1F-1C88797FC7CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="198">
   <si>
     <t>ID</t>
   </si>
@@ -573,6 +573,54 @@
   </si>
   <si>
     <t>Bez2</t>
+  </si>
+  <si>
+    <t>Zuordnung</t>
+  </si>
+  <si>
+    <t>Gliederung</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>Baubesch</t>
+  </si>
+  <si>
+    <t>Baugesch</t>
+  </si>
+  <si>
+    <t>Gruppe</t>
+  </si>
+  <si>
+    <t>ausfuehrend</t>
+  </si>
+  <si>
+    <t>beteiligtP</t>
+  </si>
+  <si>
+    <t>beteiligtG</t>
+  </si>
+  <si>
+    <t>KommentarB</t>
+  </si>
+  <si>
+    <t>Bauteil</t>
+  </si>
+  <si>
+    <t>EigentümerPers</t>
+  </si>
+  <si>
+    <t>EigentümerG</t>
+  </si>
+  <si>
+    <t>EigentümerI</t>
+  </si>
+  <si>
+    <t>kurztitel</t>
+  </si>
+  <si>
+    <t>links</t>
   </si>
 </sst>
 </file>
@@ -796,7 +844,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -873,11 +921,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1019,6 +1078,7 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1607,11 +1667,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,16 +1699,25 @@
       <c r="A3" t="s">
         <v>30</v>
       </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1670,31 +1739,49 @@
       <c r="A8" t="s">
         <v>35</v>
       </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="14" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
@@ -1766,16 +1853,25 @@
       <c r="A23" s="23" t="s">
         <v>50</v>
       </c>
+      <c r="B23" s="23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="24" spans="1:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>179</v>
       </c>
+      <c r="B24" s="24" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="25" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>51</v>
       </c>
+      <c r="B25" s="25" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="26" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
@@ -1839,66 +1935,105 @@
       <c r="A34" s="34" t="s">
         <v>57</v>
       </c>
+      <c r="B34" s="34" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="35" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>58</v>
       </c>
+      <c r="B35" s="35" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="36" spans="1:2" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
         <v>59</v>
       </c>
+      <c r="B36" s="36" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="37" spans="1:2" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>60</v>
       </c>
+      <c r="B37" s="37" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="38" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>61</v>
       </c>
+      <c r="B38" s="38" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="39" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>62</v>
       </c>
+      <c r="B39" s="39" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="40" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
         <v>63</v>
       </c>
+      <c r="B40" s="40" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="41" spans="1:2" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>64</v>
       </c>
+      <c r="B41" s="41" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>65</v>
       </c>
+      <c r="B42" s="141" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>66</v>
       </c>
+      <c r="B43" s="141" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>67</v>
       </c>
+      <c r="B44" s="141" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>68</v>
       </c>
+      <c r="B45" s="141" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>69</v>
       </c>
+      <c r="B46" s="141" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -1933,19 +2068,31 @@
       <c r="A51" s="43" t="s">
         <v>15</v>
       </c>
+      <c r="B51" s="43" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="52" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>16</v>
       </c>
+      <c r="B52" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
+      <c r="B53" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
         <v>71</v>
       </c>
     </row>

--- a/src/test/resources/visitExcelArchitectureTest.xlsx
+++ b/src/test/resources/visitExcelArchitectureTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281CDFF-D826-4BBD-BB1F-1C88797FC7CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786083C-8F07-4ABA-B5A1-C7548828D1A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
   <si>
     <t>ID</t>
   </si>
@@ -603,9 +603,6 @@
   </si>
   <si>
     <t>KommentarB</t>
-  </si>
-  <si>
-    <t>Bauteil</t>
   </si>
   <si>
     <t>EigentümerPers</t>
@@ -1668,10 +1665,10 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1999,24 +1996,20 @@
       <c r="A42" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="141" t="s">
-        <v>192</v>
-      </c>
+      <c r="B42" s="141"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="141" t="s">
-        <v>192</v>
-      </c>
+      <c r="B43" s="141"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2024,7 +2017,7 @@
         <v>68</v>
       </c>
       <c r="B45" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2032,7 +2025,7 @@
         <v>69</v>
       </c>
       <c r="B46" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2069,7 +2062,7 @@
         <v>15</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.3">
@@ -2085,7 +2078,7 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/test/resources/visitExcelArchitectureTest.xlsx
+++ b/src/test/resources/visitExcelArchitectureTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786083C-8F07-4ABA-B5A1-C7548828D1A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC628C6E-8975-4CF7-A5EC-D93830B90DEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="197">
   <si>
     <t>ID</t>
   </si>
@@ -933,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1076,6 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1665,15 +1666,16 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42:B43"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1794,8 +1796,8 @@
       <c r="A16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>168</v>
+      <c r="B16" s="142">
+        <v>43607</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
